--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4537,28 +4537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.5401322386945</v>
+        <v>248.2549981570231</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.9148796675425</v>
+        <v>339.6734407158285</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.250020976555</v>
+        <v>307.2554842686792</v>
       </c>
       <c r="AD2" t="n">
-        <v>196540.1322386945</v>
+        <v>248254.9981570231</v>
       </c>
       <c r="AE2" t="n">
-        <v>268914.8796675425</v>
+        <v>339673.4407158284</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.78935693691993e-06</v>
+        <v>4.021316634511567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.89699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>243250.020976555</v>
+        <v>307255.4842686792</v>
       </c>
     </row>
     <row r="3">
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.0255494610324</v>
+        <v>209.1923884384493</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.1634813027846</v>
+        <v>286.2262547781876</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.4833174732607</v>
+        <v>258.9092227433133</v>
       </c>
       <c r="AD3" t="n">
-        <v>166025.5494610324</v>
+        <v>209192.3884384493</v>
       </c>
       <c r="AE3" t="n">
-        <v>227163.4813027846</v>
+        <v>286226.2547781876</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.175157058523594e-06</v>
+        <v>4.577510940828821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.57175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>205483.3174732607</v>
+        <v>258909.2227433132</v>
       </c>
     </row>
     <row r="4">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.0372588329135</v>
+        <v>188.1187569557588</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.4463761273737</v>
+        <v>257.392382480579</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.5069325110716</v>
+        <v>232.8272147491853</v>
       </c>
       <c r="AD4" t="n">
-        <v>145037.2588329135</v>
+        <v>188118.7569557588</v>
       </c>
       <c r="AE4" t="n">
-        <v>198446.3761273737</v>
+        <v>257392.3824805791</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.45093114490269e-06</v>
+        <v>4.97508462752524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.807870370370372</v>
       </c>
       <c r="AH4" t="n">
-        <v>179506.9325110716</v>
+        <v>232827.2147491853</v>
       </c>
     </row>
     <row r="5">
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.3781951991338</v>
+        <v>170.8264150350468</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.5986632527157</v>
+        <v>233.7322373803888</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.7899487247977</v>
+        <v>211.4251606901275</v>
       </c>
       <c r="AD5" t="n">
-        <v>136378.1951991338</v>
+        <v>170826.4150350468</v>
       </c>
       <c r="AE5" t="n">
-        <v>186598.6632527157</v>
+        <v>233732.2373803888</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.666571670264063e-06</v>
+        <v>5.28596589920216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH5" t="n">
-        <v>168789.9487247977</v>
+        <v>211425.1606901275</v>
       </c>
     </row>
     <row r="6">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.0787893840259</v>
+        <v>166.5270092199389</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.7160265400902</v>
+        <v>227.8496006677633</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.4687426036908</v>
+        <v>206.1039545690206</v>
       </c>
       <c r="AD6" t="n">
-        <v>132078.7893840259</v>
+        <v>166527.0092199389</v>
       </c>
       <c r="AE6" t="n">
-        <v>180716.0265400902</v>
+        <v>227849.6006677633</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.783897762241001e-06</v>
+        <v>5.455110750864662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>163468.7426036908</v>
+        <v>206103.9545690206</v>
       </c>
     </row>
     <row r="7">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.7898640802117</v>
+        <v>165.7860213484854</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.0065091409557</v>
+        <v>226.8357483719634</v>
       </c>
       <c r="AC7" t="n">
-        <v>151.972203707206</v>
+        <v>205.1868629133809</v>
       </c>
       <c r="AD7" t="n">
-        <v>122789.8640802117</v>
+        <v>165786.0213484854</v>
       </c>
       <c r="AE7" t="n">
-        <v>168006.5091409557</v>
+        <v>226835.7483719634</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.801491424198152e-06</v>
+        <v>5.48047490722408e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.997685185185186</v>
       </c>
       <c r="AH7" t="n">
-        <v>151972.203707206</v>
+        <v>205186.8629133809</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.8941015499882</v>
+        <v>457.4356347352378</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.3148930180663</v>
+        <v>625.88361608068</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.2294014739072</v>
+        <v>566.1501621951114</v>
       </c>
       <c r="AD2" t="n">
-        <v>375894.1015499883</v>
+        <v>457435.6347352378</v>
       </c>
       <c r="AE2" t="n">
-        <v>514314.8930180663</v>
+        <v>625883.6160806799</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.789422747749644e-06</v>
+        <v>2.50841676466144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>465229.4014739072</v>
+        <v>566150.1621951114</v>
       </c>
     </row>
     <row r="3">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.8308514676723</v>
+        <v>343.2994555309617</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.8769162439519</v>
+        <v>469.717460360539</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.3356807287553</v>
+        <v>424.8882851963245</v>
       </c>
       <c r="AD3" t="n">
-        <v>279830.8514676723</v>
+        <v>343299.4555309617</v>
       </c>
       <c r="AE3" t="n">
-        <v>382876.9162439519</v>
+        <v>469717.460360539</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.196424659483458e-06</v>
+        <v>3.078952944514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>346335.6807287553</v>
+        <v>424888.2851963245</v>
       </c>
     </row>
     <row r="4">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.9985326399616</v>
+        <v>294.3027503689676</v>
       </c>
       <c r="AB4" t="n">
-        <v>328.3765803458393</v>
+        <v>402.6780067758237</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.0367803971552</v>
+        <v>364.2469829712704</v>
       </c>
       <c r="AD4" t="n">
-        <v>239998.5326399616</v>
+        <v>294302.7503689676</v>
       </c>
       <c r="AE4" t="n">
-        <v>328376.5803458393</v>
+        <v>402678.0067758237</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.484416716065842e-06</v>
+        <v>3.482660846254415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>297036.7803971551</v>
+        <v>364246.9829712705</v>
       </c>
     </row>
     <row r="5">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.7700296472256</v>
+        <v>258.2510454431292</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.1213413144237</v>
+        <v>353.3504736073214</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.3371290908295</v>
+        <v>319.6272003367423</v>
       </c>
       <c r="AD5" t="n">
-        <v>212770.0296472256</v>
+        <v>258251.0454431292</v>
       </c>
       <c r="AE5" t="n">
-        <v>291121.3413144237</v>
+        <v>353350.4736073214</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.707547910220526e-06</v>
+        <v>3.795446647619921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.50347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>263337.1290908295</v>
+        <v>319627.2003367423</v>
       </c>
     </row>
     <row r="6">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>191.5755026333928</v>
+        <v>236.9711775747215</v>
       </c>
       <c r="AB6" t="n">
-        <v>262.1220544175719</v>
+        <v>324.2344195881005</v>
       </c>
       <c r="AC6" t="n">
-        <v>237.1054934346492</v>
+        <v>293.2899416485745</v>
       </c>
       <c r="AD6" t="n">
-        <v>191575.5026333928</v>
+        <v>236971.1775747215</v>
       </c>
       <c r="AE6" t="n">
-        <v>262122.0544175719</v>
+        <v>324234.4195881005</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.885817007862718e-06</v>
+        <v>4.045344662892779e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.855324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>237105.4934346493</v>
+        <v>293289.9416485745</v>
       </c>
     </row>
     <row r="7">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.1760080769876</v>
+        <v>227.4010908177241</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.2612512890713</v>
+        <v>311.140204684753</v>
       </c>
       <c r="AC7" t="n">
-        <v>225.4721073064781</v>
+        <v>281.4454202377523</v>
       </c>
       <c r="AD7" t="n">
-        <v>182176.0080769876</v>
+        <v>227401.0908177241</v>
       </c>
       <c r="AE7" t="n">
-        <v>249261.2512890713</v>
+        <v>311140.204684753</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.042121858910075e-06</v>
+        <v>4.264453148720498e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.346064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>225472.1073064781</v>
+        <v>281445.4202377523</v>
       </c>
     </row>
     <row r="8">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>176.0226587821086</v>
+        <v>212.3392882437225</v>
       </c>
       <c r="AB8" t="n">
-        <v>240.8419673172102</v>
+        <v>290.5319819231815</v>
       </c>
       <c r="AC8" t="n">
-        <v>217.8563479803496</v>
+        <v>262.8040173327163</v>
       </c>
       <c r="AD8" t="n">
-        <v>176022.6587821085</v>
+        <v>212339.2882437225</v>
       </c>
       <c r="AE8" t="n">
-        <v>240841.9673172102</v>
+        <v>290531.9819231815</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.156463697447391e-06</v>
+        <v>4.424737790820812e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>217856.3479803496</v>
+        <v>262804.0173327163</v>
       </c>
     </row>
     <row r="9">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.1653580709553</v>
+        <v>206.4756921577124</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.5135530263732</v>
+        <v>282.5091510747041</v>
       </c>
       <c r="AC9" t="n">
-        <v>199.4680490183148</v>
+        <v>255.5468742003012</v>
       </c>
       <c r="AD9" t="n">
-        <v>161165.3580709553</v>
+        <v>206475.6921577124</v>
       </c>
       <c r="AE9" t="n">
-        <v>220513.5530263731</v>
+        <v>282509.1510747041</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.265056504996797e-06</v>
+        <v>4.576963428569715e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.709490740740742</v>
       </c>
       <c r="AH9" t="n">
-        <v>199468.0490183148</v>
+        <v>255546.8742003012</v>
       </c>
     </row>
     <row r="10">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>156.3227243743303</v>
+        <v>192.5540129813728</v>
       </c>
       <c r="AB10" t="n">
-        <v>213.8876479607335</v>
+        <v>263.4608954445072</v>
       </c>
       <c r="AC10" t="n">
-        <v>193.4745110326216</v>
+        <v>238.3165573530495</v>
       </c>
       <c r="AD10" t="n">
-        <v>156322.7243743303</v>
+        <v>192554.0129813727</v>
       </c>
       <c r="AE10" t="n">
-        <v>213887.6479607335</v>
+        <v>263460.8954445072</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.361758154434458e-06</v>
+        <v>4.712520014583218e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.460648148148147</v>
       </c>
       <c r="AH10" t="n">
-        <v>193474.5110326216</v>
+        <v>238316.5573530495</v>
       </c>
     </row>
     <row r="11">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>152.1143526142175</v>
+        <v>188.3456412212599</v>
       </c>
       <c r="AB11" t="n">
-        <v>208.1295680582912</v>
+        <v>257.7028155420649</v>
       </c>
       <c r="AC11" t="n">
-        <v>188.2659741945507</v>
+        <v>233.1080205149786</v>
       </c>
       <c r="AD11" t="n">
-        <v>152114.3526142175</v>
+        <v>188345.6412212599</v>
       </c>
       <c r="AE11" t="n">
-        <v>208129.5680582912</v>
+        <v>257702.8155420648</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.446716056811346e-06</v>
+        <v>4.831614189998536e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>188265.9741945507</v>
+        <v>233108.0205149786</v>
       </c>
     </row>
     <row r="12">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>148.1252626539739</v>
+        <v>184.3565512610163</v>
       </c>
       <c r="AB12" t="n">
-        <v>202.6715191884601</v>
+        <v>252.2447666722338</v>
       </c>
       <c r="AC12" t="n">
-        <v>183.3288338484348</v>
+        <v>228.1708801688627</v>
       </c>
       <c r="AD12" t="n">
-        <v>148125.2626539739</v>
+        <v>184356.5512610163</v>
       </c>
       <c r="AE12" t="n">
-        <v>202671.5191884601</v>
+        <v>252244.7666722338</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.523910310503706e-06</v>
+        <v>4.939825265520493e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.06712962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>183328.8338484348</v>
+        <v>228170.8801688627</v>
       </c>
     </row>
     <row r="13">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>137.1832005780923</v>
+        <v>182.4081938102777</v>
       </c>
       <c r="AB13" t="n">
-        <v>187.7001071265369</v>
+        <v>249.5789380526703</v>
       </c>
       <c r="AC13" t="n">
-        <v>169.786272341188</v>
+        <v>225.7594744912356</v>
       </c>
       <c r="AD13" t="n">
-        <v>137183.2005780922</v>
+        <v>182408.1938102777</v>
       </c>
       <c r="AE13" t="n">
-        <v>187700.1071265369</v>
+        <v>249578.9380526703</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.558797592567091e-06</v>
+        <v>4.988730334661543e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.991898148148149</v>
       </c>
       <c r="AH13" t="n">
-        <v>169786.272341188</v>
+        <v>225759.4744912356</v>
       </c>
     </row>
     <row r="14">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>147.3634206870449</v>
+        <v>183.5947092940873</v>
       </c>
       <c r="AB14" t="n">
-        <v>201.6291333992129</v>
+        <v>251.2023808829865</v>
       </c>
       <c r="AC14" t="n">
-        <v>182.3859318959153</v>
+        <v>227.2279782163433</v>
       </c>
       <c r="AD14" t="n">
-        <v>147363.4206870449</v>
+        <v>183594.7092940873</v>
       </c>
       <c r="AE14" t="n">
-        <v>201629.1333992128</v>
+        <v>251202.3808829865</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.534622180207675e-06</v>
+        <v>4.954841188158167e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH14" t="n">
-        <v>182385.9318959153</v>
+        <v>227227.9782163433</v>
       </c>
     </row>
   </sheetData>
@@ -6933,28 +6933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.2352796149753</v>
+        <v>228.0752505224918</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.291663936479</v>
+        <v>312.0626197346427</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.9311963608647</v>
+        <v>282.2798012898984</v>
       </c>
       <c r="AD2" t="n">
-        <v>171235.2796149753</v>
+        <v>228075.2505224918</v>
       </c>
       <c r="AE2" t="n">
-        <v>234291.663936479</v>
+        <v>312062.6197346427</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689622394105851e-06</v>
+        <v>4.483440285849413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>211931.1963608647</v>
+        <v>282279.8012898985</v>
       </c>
     </row>
   </sheetData>
@@ -7230,28 +7230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4366583695774</v>
+        <v>157.0640223940846</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.6820169209012</v>
+        <v>214.9019246151213</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3467507446418</v>
+        <v>194.3919865466611</v>
       </c>
       <c r="AD2" t="n">
-        <v>117436.6583695774</v>
+        <v>157064.0223940846</v>
       </c>
       <c r="AE2" t="n">
-        <v>160682.0169209013</v>
+        <v>214901.9246151213</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.949900755844092e-06</v>
+        <v>6.011380115463235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>145346.7507446418</v>
+        <v>194391.9865466611</v>
       </c>
     </row>
   </sheetData>
@@ -7527,28 +7527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.6017722671235</v>
+        <v>266.5305581692436</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.6276123777477</v>
+        <v>364.6788681855135</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.6042051614443</v>
+        <v>329.8744288358933</v>
       </c>
       <c r="AD2" t="n">
-        <v>214601.7722671235</v>
+        <v>266530.5581692436</v>
       </c>
       <c r="AE2" t="n">
-        <v>293627.6123777477</v>
+        <v>364678.8681855135</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.672571324424777e-06</v>
+        <v>3.83999594238218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>265604.2051614443</v>
+        <v>329874.4288358933</v>
       </c>
     </row>
     <row r="3">
@@ -7633,28 +7633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4835827813651</v>
+        <v>215.8997312002893</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.9996473999817</v>
+        <v>295.403537052011</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.4761722797811</v>
+        <v>267.2106380773225</v>
       </c>
       <c r="AD3" t="n">
-        <v>172483.5827813651</v>
+        <v>215899.7312002893</v>
       </c>
       <c r="AE3" t="n">
-        <v>235999.6473999817</v>
+        <v>295403.537052011</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.066577549320473e-06</v>
+        <v>4.406110788802018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>213476.1722797811</v>
+        <v>267210.6380773225</v>
       </c>
     </row>
     <row r="4">
@@ -7739,28 +7739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.1472197009233</v>
+        <v>193.8802279446137</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.7522470745156</v>
+        <v>265.2754812656875</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.9702782309844</v>
+        <v>239.9579616502441</v>
       </c>
       <c r="AD4" t="n">
-        <v>159147.2197009233</v>
+        <v>193880.2279446137</v>
       </c>
       <c r="AE4" t="n">
-        <v>217752.2470745156</v>
+        <v>265275.4812656875</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.346447050337654e-06</v>
+        <v>4.808232048758966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>196970.2782309844</v>
+        <v>239957.9616502441</v>
       </c>
     </row>
     <row r="5">
@@ -7845,28 +7845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.5991795176666</v>
+        <v>176.2468469067853</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.7422443309006</v>
+        <v>241.1487113998749</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.251756450962</v>
+        <v>218.1338168382828</v>
       </c>
       <c r="AD5" t="n">
-        <v>141599.1795176666</v>
+        <v>176246.8469067853</v>
       </c>
       <c r="AE5" t="n">
-        <v>193742.2443309006</v>
+        <v>241148.7113998749</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.5550201868499e-06</v>
+        <v>5.107913479363753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.483796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>175251.756450962</v>
+        <v>218133.8168382828</v>
       </c>
     </row>
     <row r="6">
@@ -7951,28 +7951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.1197127315309</v>
+        <v>169.7673801206496</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.8767520202142</v>
+        <v>232.2832190891884</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.232374283608</v>
+        <v>210.1144346709289</v>
       </c>
       <c r="AD6" t="n">
-        <v>135119.7127315309</v>
+        <v>169767.3801206496</v>
       </c>
       <c r="AE6" t="n">
-        <v>184876.7520202142</v>
+        <v>232283.2190891884</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.714863717505337e-06</v>
+        <v>5.337579383327992e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.119212962962964</v>
       </c>
       <c r="AH6" t="n">
-        <v>167232.374283608</v>
+        <v>210114.4346709289</v>
       </c>
     </row>
     <row r="7">
@@ -8057,28 +8057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.3709180280656</v>
+        <v>168.0185854171844</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.483973955557</v>
+        <v>229.8904410245313</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.0679595991558</v>
+        <v>207.9500199864767</v>
       </c>
       <c r="AD7" t="n">
-        <v>133370.9180280656</v>
+        <v>168018.5854171844</v>
       </c>
       <c r="AE7" t="n">
-        <v>182483.973955557</v>
+        <v>229890.4410245313</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.757912545780977e-06</v>
+        <v>5.399432672103492e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.02662037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>165067.9595991558</v>
+        <v>207950.0199864767</v>
       </c>
     </row>
     <row r="8">
@@ -8163,28 +8163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>133.4658702597396</v>
+        <v>168.1135376488584</v>
       </c>
       <c r="AB8" t="n">
-        <v>182.6138917879301</v>
+        <v>230.0203588569044</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.1854782559481</v>
+        <v>208.067538643269</v>
       </c>
       <c r="AD8" t="n">
-        <v>133465.8702597396</v>
+        <v>168113.5376488584</v>
       </c>
       <c r="AE8" t="n">
-        <v>182613.8917879301</v>
+        <v>230020.3588569044</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.75655749791758e-06</v>
+        <v>5.397485716282473e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.02662037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>165185.4782559481</v>
+        <v>208067.538643269</v>
       </c>
     </row>
   </sheetData>
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.236706402856</v>
+        <v>153.8163396689597</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.8814102863178</v>
+        <v>210.4583018329579</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.0499213046591</v>
+        <v>190.3724568861623</v>
       </c>
       <c r="AD2" t="n">
-        <v>121236.706402856</v>
+        <v>153816.3396689597</v>
       </c>
       <c r="AE2" t="n">
-        <v>165881.4102863178</v>
+        <v>210458.3018329579</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939710362595631e-06</v>
+        <v>5.881635731665757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>150049.9213046591</v>
+        <v>190372.4568861623</v>
       </c>
     </row>
     <row r="3">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8887462031494</v>
+        <v>153.4683794692531</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.4053157901588</v>
+        <v>209.9822073367989</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6192645990106</v>
+        <v>189.9418001805137</v>
       </c>
       <c r="AD3" t="n">
-        <v>120888.7462031493</v>
+        <v>153468.3794692531</v>
       </c>
       <c r="AE3" t="n">
-        <v>165405.3157901588</v>
+        <v>209982.2073367989</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.952501997540127e-06</v>
+        <v>5.900732500268413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH3" t="n">
-        <v>149619.2645990106</v>
+        <v>189941.8001805137</v>
       </c>
     </row>
   </sheetData>
@@ -8863,28 +8863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.9490320290717</v>
+        <v>377.5571965661894</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.9271601928405</v>
+        <v>516.5904129898066</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.8000768341029</v>
+        <v>467.287749013257</v>
       </c>
       <c r="AD2" t="n">
-        <v>314949.0320290717</v>
+        <v>377557.1965661894</v>
       </c>
       <c r="AE2" t="n">
-        <v>430927.1601928405</v>
+        <v>516590.4129898066</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.049084597142988e-06</v>
+        <v>2.893427169335209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12615740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>389800.0768341029</v>
+        <v>467287.749013257</v>
       </c>
     </row>
     <row r="3">
@@ -8969,28 +8969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.2558573092094</v>
+        <v>292.9930709233309</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.3604191937816</v>
+        <v>400.8860455793243</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.1176002392583</v>
+        <v>362.6260440363316</v>
       </c>
       <c r="AD3" t="n">
-        <v>239255.8573092094</v>
+        <v>292993.070923331</v>
       </c>
       <c r="AE3" t="n">
-        <v>327360.4191937816</v>
+        <v>400886.0455793244</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.454439263548829e-06</v>
+        <v>3.46581164122611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>296117.6002392583</v>
+        <v>362626.0440363316</v>
       </c>
     </row>
     <row r="4">
@@ -9075,28 +9075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.0293603353863</v>
+        <v>250.8957125350561</v>
       </c>
       <c r="AB4" t="n">
-        <v>281.8984601846275</v>
+        <v>343.2865826279475</v>
       </c>
       <c r="AC4" t="n">
-        <v>254.9944667916633</v>
+        <v>310.5237929877833</v>
       </c>
       <c r="AD4" t="n">
-        <v>206029.3603353863</v>
+        <v>250895.7125350561</v>
       </c>
       <c r="AE4" t="n">
-        <v>281898.4601846275</v>
+        <v>343286.5826279475</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754540786906676e-06</v>
+        <v>3.889572525697728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.50925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>254994.4667916633</v>
+        <v>310523.7929877833</v>
       </c>
     </row>
     <row r="5">
@@ -9181,28 +9181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.913846313615</v>
+        <v>228.6948576587131</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.6390382324357</v>
+        <v>312.910393553558</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.6229616012136</v>
+        <v>283.0466647653949</v>
       </c>
       <c r="AD5" t="n">
-        <v>183913.846313615</v>
+        <v>228694.8576587132</v>
       </c>
       <c r="AE5" t="n">
-        <v>251639.0382324357</v>
+        <v>312910.393553558</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.962295683807016e-06</v>
+        <v>4.18293457824159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.774305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>227622.9616012136</v>
+        <v>283046.6647653949</v>
       </c>
     </row>
     <row r="6">
@@ -9287,28 +9287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.0134493135043</v>
+        <v>209.8383478981338</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.0928782822014</v>
+        <v>287.1100850086476</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.3696281444704</v>
+        <v>259.708701457042</v>
       </c>
       <c r="AD6" t="n">
-        <v>174013.4493135043</v>
+        <v>209838.3478981338</v>
       </c>
       <c r="AE6" t="n">
-        <v>238092.8782822014</v>
+        <v>287110.0850086476</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.142686764525202e-06</v>
+        <v>4.437657323599925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH6" t="n">
-        <v>215369.6281444704</v>
+        <v>259708.701457042</v>
       </c>
     </row>
     <row r="7">
@@ -9393,28 +9393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.2546505774168</v>
+        <v>202.9503210679433</v>
       </c>
       <c r="AB7" t="n">
-        <v>216.5309946223639</v>
+        <v>277.6855828212886</v>
       </c>
       <c r="AC7" t="n">
-        <v>195.8655803988271</v>
+        <v>251.1836605310696</v>
       </c>
       <c r="AD7" t="n">
-        <v>158254.6505774168</v>
+        <v>202950.3210679433</v>
       </c>
       <c r="AE7" t="n">
-        <v>216530.9946223639</v>
+        <v>277685.5828212886</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.273953041786577e-06</v>
+        <v>4.623012976350971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.842592592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>195865.5803988272</v>
+        <v>251183.6605310696</v>
       </c>
     </row>
     <row r="8">
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.3150451020629</v>
+        <v>188.2251950327131</v>
       </c>
       <c r="AB8" t="n">
-        <v>208.4041643740889</v>
+        <v>257.5380157531844</v>
       </c>
       <c r="AC8" t="n">
-        <v>188.5143634233671</v>
+        <v>232.9589489866509</v>
       </c>
       <c r="AD8" t="n">
-        <v>152315.0451020629</v>
+        <v>188225.1950327131</v>
       </c>
       <c r="AE8" t="n">
-        <v>208404.1643740889</v>
+        <v>257538.0157531844</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.399166262817531e-06</v>
+        <v>4.799821360053664e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.518518518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>188514.3634233671</v>
+        <v>232958.9489866509</v>
       </c>
     </row>
     <row r="9">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.8728789731138</v>
+        <v>182.6124367031717</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.9579525850396</v>
+        <v>249.8583921892882</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.7788076366383</v>
+        <v>226.0122579172711</v>
       </c>
       <c r="AD9" t="n">
-        <v>146872.8789731138</v>
+        <v>182612.4367031717</v>
       </c>
       <c r="AE9" t="n">
-        <v>200957.9525850396</v>
+        <v>249858.3921892882</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.518226377101859e-06</v>
+        <v>4.967941197533653e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.229166666666668</v>
       </c>
       <c r="AH9" t="n">
-        <v>181778.8076366383</v>
+        <v>226012.2579172711</v>
       </c>
     </row>
     <row r="10">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>143.1126710299856</v>
+        <v>178.8522287600436</v>
       </c>
       <c r="AB10" t="n">
-        <v>195.8130701885876</v>
+        <v>244.7135097928363</v>
       </c>
       <c r="AC10" t="n">
-        <v>177.1249455952143</v>
+        <v>221.3583958758471</v>
       </c>
       <c r="AD10" t="n">
-        <v>143112.6710299856</v>
+        <v>178852.2287600436</v>
       </c>
       <c r="AE10" t="n">
-        <v>195813.0701885876</v>
+        <v>244713.5097928363</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.597916613259393e-06</v>
+        <v>5.080468466905762e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH10" t="n">
-        <v>177124.9455952143</v>
+        <v>221358.3958758471</v>
       </c>
     </row>
     <row r="11">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.5937701417516</v>
+        <v>178.3333278718095</v>
       </c>
       <c r="AB11" t="n">
-        <v>195.1030871010146</v>
+        <v>244.0035267052633</v>
       </c>
       <c r="AC11" t="n">
-        <v>176.4827222970515</v>
+        <v>220.7161725776843</v>
       </c>
       <c r="AD11" t="n">
-        <v>142593.7701417516</v>
+        <v>178333.3278718095</v>
       </c>
       <c r="AE11" t="n">
-        <v>195103.0871010146</v>
+        <v>244003.5267052632</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.603969669489814e-06</v>
+        <v>5.089015735954115e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>176482.7222970515</v>
+        <v>220716.1725776843</v>
       </c>
     </row>
     <row r="12">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>142.7140727083414</v>
+        <v>178.4536304383993</v>
       </c>
       <c r="AB12" t="n">
-        <v>195.2676903799974</v>
+        <v>244.168129984246</v>
       </c>
       <c r="AC12" t="n">
-        <v>176.6316160701104</v>
+        <v>220.8650663507431</v>
       </c>
       <c r="AD12" t="n">
-        <v>142714.0727083414</v>
+        <v>178453.6304383993</v>
       </c>
       <c r="AE12" t="n">
-        <v>195267.6903799974</v>
+        <v>244168.129984246</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.60161848235899e-06</v>
+        <v>5.085695722356821e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.038194444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>176631.6160701104</v>
+        <v>220865.0663507431</v>
       </c>
     </row>
   </sheetData>
@@ -10220,28 +10220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.9897940352288</v>
+        <v>196.9063196096512</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.0638738660394</v>
+        <v>269.4159133835318</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.8247953778415</v>
+        <v>243.7032367378957</v>
       </c>
       <c r="AD2" t="n">
-        <v>154989.7940352288</v>
+        <v>196906.3196096512</v>
       </c>
       <c r="AE2" t="n">
-        <v>212063.8738660394</v>
+        <v>269415.9133835318</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.330835666133375e-06</v>
+        <v>4.876218112669339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.438657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>191824.7953778415</v>
+        <v>243703.2367378957</v>
       </c>
     </row>
     <row r="3">
@@ -10326,28 +10326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.9839775768245</v>
+        <v>165.5684204508156</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.5863008426755</v>
+        <v>226.5380172238976</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.3513977447662</v>
+        <v>204.9175468082181</v>
       </c>
       <c r="AD3" t="n">
-        <v>131983.9775768245</v>
+        <v>165568.4204508156</v>
       </c>
       <c r="AE3" t="n">
-        <v>180586.3008426755</v>
+        <v>226538.0172238977</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.71429358568008e-06</v>
+        <v>5.437586081600314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.466435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>163351.3977447662</v>
+        <v>204917.5468082181</v>
       </c>
     </row>
     <row r="4">
@@ -10432,28 +10432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.2934657194563</v>
+        <v>159.8779085934474</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.8002914717632</v>
+        <v>218.7520078529853</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.3084741804785</v>
+        <v>197.8746232439304</v>
       </c>
       <c r="AD4" t="n">
-        <v>126293.4657194563</v>
+        <v>159877.9085934474</v>
       </c>
       <c r="AE4" t="n">
-        <v>172800.2914717632</v>
+        <v>218752.0078529853</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.881845898499864e-06</v>
+        <v>5.682876364425919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.101851851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>156308.4741804785</v>
+        <v>197874.6232439304</v>
       </c>
     </row>
     <row r="5">
@@ -10538,28 +10538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.3381987868289</v>
+        <v>159.9226416608199</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.8614972280259</v>
+        <v>218.813213609248</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.3638385452664</v>
+        <v>197.9299876087183</v>
       </c>
       <c r="AD5" t="n">
-        <v>126338.1987868289</v>
+        <v>159922.6416608199</v>
       </c>
       <c r="AE5" t="n">
-        <v>172861.4972280259</v>
+        <v>218813.2136092481</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.879346739488933e-06</v>
+        <v>5.679217689649662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.101851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>156363.8385452664</v>
+        <v>197929.9876087183</v>
       </c>
     </row>
   </sheetData>
@@ -10835,28 +10835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.0940130812357</v>
+        <v>296.6819305540612</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.980197365433</v>
+        <v>405.9333060670908</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.1055960731265</v>
+        <v>367.1916010670202</v>
       </c>
       <c r="AD2" t="n">
-        <v>244094.0130812357</v>
+        <v>296681.9305540613</v>
       </c>
       <c r="AE2" t="n">
-        <v>333980.197365433</v>
+        <v>405933.3060670908</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.451072743756313e-06</v>
+        <v>3.499670131632523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>302105.5960731265</v>
+        <v>367191.6010670202</v>
       </c>
     </row>
     <row r="3">
@@ -10941,28 +10941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.5835769473236</v>
+        <v>239.3926329503383</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.6060785176483</v>
+        <v>327.5475616600894</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.0661299714924</v>
+        <v>296.2868820912379</v>
       </c>
       <c r="AD3" t="n">
-        <v>195583.5769473236</v>
+        <v>239392.6329503383</v>
       </c>
       <c r="AE3" t="n">
-        <v>267606.0785176483</v>
+        <v>327547.5616600894</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.85104976455789e-06</v>
+        <v>4.070761967484542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.42824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>242066.1299714924</v>
+        <v>296286.8820912379</v>
       </c>
     </row>
     <row r="4">
@@ -11047,28 +11047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.8273596345865</v>
+        <v>214.5510747830296</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.7335298231519</v>
+        <v>293.5582458433954</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.4263297839672</v>
+        <v>265.541458871774</v>
       </c>
       <c r="AD4" t="n">
-        <v>170827.3596345865</v>
+        <v>214551.0747830296</v>
       </c>
       <c r="AE4" t="n">
-        <v>233733.5298231519</v>
+        <v>293558.2458433954</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.134172063088554e-06</v>
+        <v>4.475007273663599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.484953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>211426.3297839672</v>
+        <v>265541.458871774</v>
       </c>
     </row>
     <row r="5">
@@ -11153,28 +11153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.0735452749521</v>
+        <v>195.8825117694158</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.0737336564156</v>
+        <v>268.0150943293083</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.2154685496259</v>
+        <v>242.436109888145</v>
       </c>
       <c r="AD5" t="n">
-        <v>152073.5452749521</v>
+        <v>195882.5117694158</v>
       </c>
       <c r="AE5" t="n">
-        <v>208073.7336564156</v>
+        <v>268015.0943293083</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.343020986496697e-06</v>
+        <v>4.773204192191185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>188215.4685496259</v>
+        <v>242436.1098881449</v>
       </c>
     </row>
     <row r="6">
@@ -11259,28 +11259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.5934029982032</v>
+        <v>179.6235975314109</v>
       </c>
       <c r="AB6" t="n">
-        <v>197.839072992786</v>
+        <v>245.768930576209</v>
       </c>
       <c r="AC6" t="n">
-        <v>178.9575895352934</v>
+        <v>222.3130887809474</v>
       </c>
       <c r="AD6" t="n">
-        <v>144593.4029982032</v>
+        <v>179623.5975314109</v>
       </c>
       <c r="AE6" t="n">
-        <v>197839.072992786</v>
+        <v>245768.9305762089</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.513962751647287e-06</v>
+        <v>5.017276829884201e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.460648148148147</v>
       </c>
       <c r="AH6" t="n">
-        <v>178957.5895352934</v>
+        <v>222313.0887809474</v>
       </c>
     </row>
     <row r="7">
@@ -11365,28 +11365,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.6407627049817</v>
+        <v>173.6709572381894</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.6944079316488</v>
+        <v>237.6242655150719</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.5902398764794</v>
+        <v>214.9457391221334</v>
       </c>
       <c r="AD7" t="n">
-        <v>138640.7627049817</v>
+        <v>173670.9572381894</v>
       </c>
       <c r="AE7" t="n">
-        <v>189694.4079316488</v>
+        <v>237624.2655150719</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.65829759541927e-06</v>
+        <v>5.223359796205528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>171590.2398764794</v>
+        <v>214945.7391221334</v>
       </c>
     </row>
     <row r="8">
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.4242363079887</v>
+        <v>171.4544308411964</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.6616587290413</v>
+        <v>234.5915163124643</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.8469320012775</v>
+        <v>212.2024312469316</v>
       </c>
       <c r="AD8" t="n">
-        <v>136424.2363079887</v>
+        <v>171454.4308411964</v>
       </c>
       <c r="AE8" t="n">
-        <v>186661.6587290413</v>
+        <v>234591.5163124643</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.706169508015529e-06</v>
+        <v>5.291711869020999e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>168846.9320012775</v>
+        <v>212202.4312469315</v>
       </c>
     </row>
     <row r="9">
@@ -11577,28 +11577,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.4883100645692</v>
+        <v>171.5185045977769</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.7493272695293</v>
+        <v>234.6791848529523</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.9262335793049</v>
+        <v>212.281732824959</v>
       </c>
       <c r="AD9" t="n">
-        <v>136488.3100645692</v>
+        <v>171518.5045977769</v>
       </c>
       <c r="AE9" t="n">
-        <v>186749.3272695293</v>
+        <v>234679.1848529523</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.70272807223876e-06</v>
+        <v>5.286798147048214e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.02662037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>168926.2335793049</v>
+        <v>212281.732824959</v>
       </c>
     </row>
   </sheetData>
@@ -11874,28 +11874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.8510467541553</v>
+        <v>154.9202911996654</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.45846609152</v>
+        <v>211.9687770201728</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.2855879242433</v>
+        <v>191.7387744414751</v>
       </c>
       <c r="AD2" t="n">
-        <v>123851.0467541553</v>
+        <v>154920.2911996654</v>
       </c>
       <c r="AE2" t="n">
-        <v>169458.46609152</v>
+        <v>211968.7770201728</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.87501626358157e-06</v>
+        <v>5.995128464314068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.050925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>153285.5879242433</v>
+        <v>191738.7744414751</v>
       </c>
     </row>
   </sheetData>
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.3847791008454</v>
+        <v>150.3853898018028</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.9792775335562</v>
+        <v>205.7639248618906</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5202026251421</v>
+        <v>186.1261046646127</v>
       </c>
       <c r="AD2" t="n">
-        <v>118384.7791008455</v>
+        <v>150385.3898018028</v>
       </c>
       <c r="AE2" t="n">
-        <v>161979.2775335562</v>
+        <v>205763.9248618906</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964495424506515e-06</v>
+        <v>5.99151802296241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.466435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>146520.2026251421</v>
+        <v>186126.1046646127</v>
       </c>
     </row>
   </sheetData>
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.8306375428249</v>
+        <v>401.7296665971634</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.2888293868574</v>
+        <v>549.6642529002993</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.218456898025</v>
+        <v>497.2050680621181</v>
       </c>
       <c r="AD2" t="n">
-        <v>329830.637542825</v>
+        <v>401729.6665971634</v>
       </c>
       <c r="AE2" t="n">
-        <v>451288.8293868574</v>
+        <v>549664.2529002993</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.964460631122315e-06</v>
+        <v>2.766960737887766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.64699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>408218.456898025</v>
+        <v>497205.0680621181</v>
       </c>
     </row>
     <row r="3">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.2616783898108</v>
+        <v>312.1647044754727</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.3650220740637</v>
+        <v>427.1175203981441</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.6403603182377</v>
+        <v>386.3540237145493</v>
       </c>
       <c r="AD3" t="n">
-        <v>258261.6783898108</v>
+        <v>312164.7044754727</v>
       </c>
       <c r="AE3" t="n">
-        <v>353365.0220740637</v>
+        <v>427117.520398144</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364353239664665e-06</v>
+        <v>3.330213128736676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.17013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>319640.3603182377</v>
+        <v>386354.0237145493</v>
       </c>
     </row>
     <row r="4">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.9176630245725</v>
+        <v>267.820599601686</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.6915839313202</v>
+        <v>366.4439597859925</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.7575099562193</v>
+        <v>331.4710625713443</v>
       </c>
       <c r="AD4" t="n">
-        <v>213917.6630245725</v>
+        <v>267820.599601686</v>
       </c>
       <c r="AE4" t="n">
-        <v>292691.5839313202</v>
+        <v>366443.9597859925</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.660382158135528e-06</v>
+        <v>3.747172563663248e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.81597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>264757.5099562193</v>
+        <v>331471.0625713443</v>
       </c>
     </row>
     <row r="5">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.0281747363789</v>
+        <v>243.9331545834264</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.3191291775607</v>
+        <v>333.7601036721545</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.3293736912323</v>
+        <v>301.906507813031</v>
       </c>
       <c r="AD5" t="n">
-        <v>199028.1747363789</v>
+        <v>243933.1545834264</v>
       </c>
       <c r="AE5" t="n">
-        <v>272319.1291775607</v>
+        <v>333760.1036721545</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.876412667164064e-06</v>
+        <v>4.051453508365289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.00578703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>246329.3736912324</v>
+        <v>301906.507813031</v>
       </c>
     </row>
     <row r="6">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>179.8677253258073</v>
+        <v>224.6873643182832</v>
       </c>
       <c r="AB6" t="n">
-        <v>246.1029569946601</v>
+        <v>307.4271643670562</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.6152361868307</v>
+        <v>278.0867472766905</v>
       </c>
       <c r="AD6" t="n">
-        <v>179867.7253258073</v>
+        <v>224687.3643182832</v>
       </c>
       <c r="AE6" t="n">
-        <v>246102.9569946601</v>
+        <v>307427.1643670562</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.04933651305618e-06</v>
+        <v>4.295018324400663e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.432870370370372</v>
       </c>
       <c r="AH6" t="n">
-        <v>222615.2361868306</v>
+        <v>278086.7472766904</v>
       </c>
     </row>
     <row r="7">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>172.260632454408</v>
+        <v>208.2529069174135</v>
       </c>
       <c r="AB7" t="n">
-        <v>235.6945969267648</v>
+        <v>284.9408147141076</v>
       </c>
       <c r="AC7" t="n">
-        <v>213.2002353955869</v>
+        <v>257.7464632748221</v>
       </c>
       <c r="AD7" t="n">
-        <v>172260.632454408</v>
+        <v>208252.9069174135</v>
       </c>
       <c r="AE7" t="n">
-        <v>235694.5969267648</v>
+        <v>284940.8147141076</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193273986850797e-06</v>
+        <v>4.497755570640572e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>213200.2353955869</v>
+        <v>257746.4632748221</v>
       </c>
     </row>
     <row r="8">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>156.9629659414759</v>
+        <v>201.8678562799724</v>
       </c>
       <c r="AB8" t="n">
-        <v>214.7636547183662</v>
+        <v>276.2045067434115</v>
       </c>
       <c r="AC8" t="n">
-        <v>194.2669129347892</v>
+        <v>249.8439362753613</v>
       </c>
       <c r="AD8" t="n">
-        <v>156962.9659414759</v>
+        <v>201867.8562799724</v>
       </c>
       <c r="AE8" t="n">
-        <v>214763.6547183662</v>
+        <v>276204.5067434115</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.317820920134222e-06</v>
+        <v>4.673181063501012e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.674768518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>194266.9129347893</v>
+        <v>249843.9362753613</v>
       </c>
     </row>
     <row r="9">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>151.5922867137024</v>
+        <v>187.4992203221363</v>
       </c>
       <c r="AB9" t="n">
-        <v>207.4152544612848</v>
+        <v>256.54470512643</v>
       </c>
       <c r="AC9" t="n">
-        <v>187.6198336846969</v>
+        <v>232.0604385319933</v>
       </c>
       <c r="AD9" t="n">
-        <v>151592.2867137024</v>
+        <v>187499.2203221363</v>
       </c>
       <c r="AE9" t="n">
-        <v>207415.2544612848</v>
+        <v>256544.70512643</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.431877073807745e-06</v>
+        <v>4.833830197481791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>187619.8336846969</v>
+        <v>232060.4385319933</v>
       </c>
     </row>
     <row r="10">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>147.6738645217013</v>
+        <v>183.5807981301353</v>
       </c>
       <c r="AB10" t="n">
-        <v>202.0538963496049</v>
+        <v>251.1833470147501</v>
       </c>
       <c r="AC10" t="n">
-        <v>182.7701560664807</v>
+        <v>227.2107609137771</v>
       </c>
       <c r="AD10" t="n">
-        <v>147673.8645217013</v>
+        <v>183580.7981301353</v>
       </c>
       <c r="AE10" t="n">
-        <v>202053.8963496049</v>
+        <v>251183.3470147501</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.512372676596514e-06</v>
+        <v>4.947208989075026e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>182770.1560664807</v>
+        <v>227210.7609137771</v>
       </c>
     </row>
     <row r="11">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>144.7414597622758</v>
+        <v>180.6483933707097</v>
       </c>
       <c r="AB11" t="n">
-        <v>198.0416507891933</v>
+        <v>247.1711014543385</v>
       </c>
       <c r="AC11" t="n">
-        <v>179.1408335911314</v>
+        <v>223.5814384384279</v>
       </c>
       <c r="AD11" t="n">
-        <v>144741.4597622757</v>
+        <v>180648.3933707097</v>
       </c>
       <c r="AE11" t="n">
-        <v>198041.6507891933</v>
+        <v>247171.1014543385</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.569002998756123e-06</v>
+        <v>5.026973314970452e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>179140.8335911314</v>
+        <v>223581.4384384279</v>
       </c>
     </row>
     <row r="12">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>144.3263727275621</v>
+        <v>180.233306335996</v>
       </c>
       <c r="AB12" t="n">
-        <v>197.4737103959508</v>
+        <v>246.603161061096</v>
       </c>
       <c r="AC12" t="n">
-        <v>178.6270966319105</v>
+        <v>223.0677014792069</v>
       </c>
       <c r="AD12" t="n">
-        <v>144326.3727275621</v>
+        <v>180233.306335996</v>
       </c>
       <c r="AE12" t="n">
-        <v>197473.7103959508</v>
+        <v>246603.161061096</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.577952478992057e-06</v>
+        <v>5.03957873960713e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH12" t="n">
-        <v>178627.0966319104</v>
+        <v>223067.7014792069</v>
       </c>
     </row>
     <row r="13">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>144.41132878991</v>
+        <v>180.318262398344</v>
       </c>
       <c r="AB13" t="n">
-        <v>197.5899510284521</v>
+        <v>246.7194016935973</v>
       </c>
       <c r="AC13" t="n">
-        <v>178.7322434215907</v>
+        <v>223.1728482688871</v>
       </c>
       <c r="AD13" t="n">
-        <v>144411.32878991</v>
+        <v>180318.262398344</v>
       </c>
       <c r="AE13" t="n">
-        <v>197589.9510284521</v>
+        <v>246719.4016935973</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.577505004980261e-06</v>
+        <v>5.038948468375296e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH13" t="n">
-        <v>178732.2434215907</v>
+        <v>223172.8482688871</v>
       </c>
     </row>
   </sheetData>
@@ -13931,28 +13931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4050092500405</v>
+        <v>161.1990674357458</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.8481779006046</v>
+        <v>220.5596756664316</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.7335447817238</v>
+        <v>199.5097697783397</v>
       </c>
       <c r="AD2" t="n">
-        <v>123405.0092500405</v>
+        <v>161199.0674357458</v>
       </c>
       <c r="AE2" t="n">
-        <v>168848.1779006046</v>
+        <v>220559.6756664316</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694919265450953e-06</v>
+        <v>5.839775524330479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>152733.5447817238</v>
+        <v>199509.7697783397</v>
       </c>
     </row>
   </sheetData>
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6451318519473</v>
+        <v>205.0160451141484</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.5382447965371</v>
+        <v>280.511997594618</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.2995070476078</v>
+        <v>253.7403262453314</v>
       </c>
       <c r="AD2" t="n">
-        <v>162645.1318519473</v>
+        <v>205016.0451141484</v>
       </c>
       <c r="AE2" t="n">
-        <v>222538.2447965371</v>
+        <v>280511.997594618</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184886564359913e-06</v>
+        <v>4.643202453909157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.78587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>201299.5070476078</v>
+        <v>253740.3262453314</v>
       </c>
     </row>
     <row r="3">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.1063784263979</v>
+        <v>180.3919508340273</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.9632397863203</v>
+        <v>246.8202254622035</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.9288533927398</v>
+        <v>223.2640495585246</v>
       </c>
       <c r="AD3" t="n">
-        <v>138106.3784263979</v>
+        <v>180391.9508340273</v>
       </c>
       <c r="AE3" t="n">
-        <v>188963.2397863202</v>
+        <v>246820.2254622035</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.565869056024084e-06</v>
+        <v>5.198631604820542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.738425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>170928.8533927398</v>
+        <v>223264.0495585246</v>
       </c>
     </row>
     <row r="4">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.9522048376403</v>
+        <v>162.7636841013805</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.4380956285522</v>
+        <v>222.7004532143677</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.5990914142349</v>
+        <v>201.4462345217016</v>
       </c>
       <c r="AD4" t="n">
-        <v>128952.2048376403</v>
+        <v>162763.6841013805</v>
       </c>
       <c r="AE4" t="n">
-        <v>176438.0956285523</v>
+        <v>222700.4532143677</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.820593217706277e-06</v>
+        <v>5.569990467590719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.153935185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>159599.091414235</v>
+        <v>201446.2345217016</v>
       </c>
     </row>
     <row r="5">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.5715997768631</v>
+        <v>161.3830790406033</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.5490908764012</v>
+        <v>220.8114484622166</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.8903706243938</v>
+        <v>199.7375137318604</v>
       </c>
       <c r="AD5" t="n">
-        <v>127571.5997768631</v>
+        <v>161383.0790406033</v>
       </c>
       <c r="AE5" t="n">
-        <v>174549.0908764012</v>
+        <v>220811.4484622166</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.863935629491135e-06</v>
+        <v>5.633178775460089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>157890.3706243938</v>
+        <v>199737.5137318604</v>
       </c>
     </row>
   </sheetData>
@@ -14843,28 +14843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.6735547584815</v>
+        <v>176.200385790172</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.1615666477306</v>
+        <v>241.0851412504048</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.9671995852685</v>
+        <v>218.0763137346569</v>
       </c>
       <c r="AD2" t="n">
-        <v>131673.5547584815</v>
+        <v>176200.385790172</v>
       </c>
       <c r="AE2" t="n">
-        <v>180161.5666477306</v>
+        <v>241085.1412504048</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.526858693852372e-06</v>
+        <v>5.65085607846922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>162967.1995852685</v>
+        <v>218076.3137346569</v>
       </c>
     </row>
   </sheetData>
@@ -15140,28 +15140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.8875435763635</v>
+        <v>317.5759457972368</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.1166260827038</v>
+        <v>434.5214195017002</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.701986681246</v>
+        <v>393.0513050790997</v>
       </c>
       <c r="AD2" t="n">
-        <v>255887.5435763635</v>
+        <v>317575.9457972368</v>
       </c>
       <c r="AE2" t="n">
-        <v>350116.6260827038</v>
+        <v>434521.4195017002</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.343892797713946e-06</v>
+        <v>3.336799968151881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>316701.986681246</v>
+        <v>393051.3050790997</v>
       </c>
     </row>
     <row r="3">
@@ -15246,28 +15246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.1338625520515</v>
+        <v>256.997444333572</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.3049564940098</v>
+        <v>351.6352412640815</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.648483453272</v>
+        <v>318.0756673611032</v>
       </c>
       <c r="AD3" t="n">
-        <v>204133.8625520515</v>
+        <v>256997.4443335721</v>
       </c>
       <c r="AE3" t="n">
-        <v>279304.9564940098</v>
+        <v>351635.2412640814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.738920019753528e-06</v>
+        <v>3.899166482186314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>252648.483453272</v>
+        <v>318075.6673611032</v>
       </c>
     </row>
     <row r="4">
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.583182177794</v>
+        <v>221.7072843745375</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.9771442726194</v>
+        <v>303.3496875161771</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.7877466438748</v>
+        <v>274.3984190936832</v>
       </c>
       <c r="AD4" t="n">
-        <v>177583.182177794</v>
+        <v>221707.2843745375</v>
       </c>
       <c r="AE4" t="n">
-        <v>242977.1442726194</v>
+        <v>303349.6875161771</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023815039780785e-06</v>
+        <v>4.304747187362233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.762731481481483</v>
       </c>
       <c r="AH4" t="n">
-        <v>219787.7466438748</v>
+        <v>274398.4190936832</v>
       </c>
     </row>
     <row r="5">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.2880559943959</v>
+        <v>201.5874272603417</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.5226543227033</v>
+        <v>275.8208113870978</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.8082115242609</v>
+        <v>249.4968602653342</v>
       </c>
       <c r="AD5" t="n">
-        <v>166288.0559943959</v>
+        <v>201587.4272603417</v>
       </c>
       <c r="AE5" t="n">
-        <v>227522.6543227033</v>
+        <v>275820.8113870978</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.245150669485039e-06</v>
+        <v>4.61984381757858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.097222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>205808.2115242609</v>
+        <v>249496.8602653342</v>
       </c>
     </row>
     <row r="6">
@@ -15564,28 +15564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.0471755800122</v>
+        <v>194.0859369221841</v>
       </c>
       <c r="AB6" t="n">
-        <v>205.3011652426786</v>
+        <v>265.5569413640387</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.7075101739709</v>
+        <v>240.2125595918405</v>
       </c>
       <c r="AD6" t="n">
-        <v>150047.1755800122</v>
+        <v>194085.9369221841</v>
       </c>
       <c r="AE6" t="n">
-        <v>205301.1652426786</v>
+        <v>265556.9413640387</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.403845102305951e-06</v>
+        <v>4.845763526406205e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.674768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>185707.5101739709</v>
+        <v>240212.5595918405</v>
       </c>
     </row>
     <row r="7">
@@ -15670,28 +15670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.8000993073548</v>
+        <v>178.0141297187291</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.3853957679932</v>
+        <v>243.5667857101901</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.7380878210765</v>
+        <v>220.3211135302109</v>
       </c>
       <c r="AD7" t="n">
-        <v>142800.0993073548</v>
+        <v>178014.1297187291</v>
       </c>
       <c r="AE7" t="n">
-        <v>195385.3957679932</v>
+        <v>243566.7857101901</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.572741684456398e-06</v>
+        <v>5.086207163798768e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>176738.0878210765</v>
+        <v>220321.1135302109</v>
       </c>
     </row>
     <row r="8">
@@ -15776,28 +15776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.7858651911045</v>
+        <v>173.9998956024787</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.8929435546318</v>
+        <v>238.0743334968287</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.7698275382515</v>
+        <v>215.352853247386</v>
       </c>
       <c r="AD8" t="n">
-        <v>138785.8651911045</v>
+        <v>173999.8956024787</v>
       </c>
       <c r="AE8" t="n">
-        <v>189892.9435546318</v>
+        <v>238074.3334968287</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.662469587809656e-06</v>
+        <v>5.213945115527406e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>171769.8275382515</v>
+        <v>215352.8532473859</v>
       </c>
     </row>
     <row r="9">
@@ -15882,28 +15882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.6492784182246</v>
+        <v>172.6026989058248</v>
       </c>
       <c r="AB9" t="n">
-        <v>176.0236183373374</v>
+        <v>236.1626273364999</v>
       </c>
       <c r="AC9" t="n">
-        <v>159.2241712539711</v>
+        <v>213.6235976399018</v>
       </c>
       <c r="AD9" t="n">
-        <v>128649.2784182246</v>
+        <v>172602.6989058248</v>
       </c>
       <c r="AE9" t="n">
-        <v>176023.6183373375</v>
+        <v>236162.6273364999</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.693892207744622e-06</v>
+        <v>5.258678815507417e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.991898148148149</v>
       </c>
       <c r="AH9" t="n">
-        <v>159224.1712539711</v>
+        <v>213623.5976399018</v>
       </c>
     </row>
     <row r="10">
@@ -15988,28 +15988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.7628592810671</v>
+        <v>172.7162797686673</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.1790246847125</v>
+        <v>236.3180336838749</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.3647458376669</v>
+        <v>213.7641722235976</v>
       </c>
       <c r="AD10" t="n">
-        <v>128762.8592810671</v>
+        <v>172716.2797686673</v>
       </c>
       <c r="AE10" t="n">
-        <v>176179.0246847125</v>
+        <v>236318.0336838749</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.692769971318373e-06</v>
+        <v>5.257081183365274e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.991898148148149</v>
       </c>
       <c r="AH10" t="n">
-        <v>159364.7458376669</v>
+        <v>213764.1722235976</v>
       </c>
     </row>
   </sheetData>
@@ -16285,28 +16285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.4653391235891</v>
+        <v>429.606809133239</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.0998472466488</v>
+        <v>587.806989170888</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.4208442813748</v>
+        <v>531.7075151167084</v>
       </c>
       <c r="AD2" t="n">
-        <v>357465.3391235891</v>
+        <v>429606.809133239</v>
       </c>
       <c r="AE2" t="n">
-        <v>489099.8472466488</v>
+        <v>587806.989170888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.870925277918509e-06</v>
+        <v>2.628824790618471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>442420.8442813748</v>
+        <v>531707.5151167084</v>
       </c>
     </row>
     <row r="3">
@@ -16391,28 +16391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.7934325369585</v>
+        <v>331.9811461163488</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.7750327263924</v>
+        <v>454.231250090895</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.675099778485</v>
+        <v>410.8800570997827</v>
       </c>
       <c r="AD3" t="n">
-        <v>268793.4325369585</v>
+        <v>331981.1461163488</v>
       </c>
       <c r="AE3" t="n">
-        <v>367775.0327263924</v>
+        <v>454231.250090895</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.278322902165828e-06</v>
+        <v>3.201256510313836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>332675.099778485</v>
+        <v>410880.0570997827</v>
       </c>
     </row>
     <row r="4">
@@ -16497,28 +16497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.4402378553361</v>
+        <v>276.6353662452913</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.6667438562019</v>
+        <v>378.5047123878317</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.4445142672263</v>
+        <v>342.3807538722366</v>
       </c>
       <c r="AD4" t="n">
-        <v>231440.237855336</v>
+        <v>276635.3662452913</v>
       </c>
       <c r="AE4" t="n">
-        <v>316666.7438562019</v>
+        <v>378504.7123878317</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.569822500347399e-06</v>
+        <v>3.610840676608058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.12847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>286444.5142672263</v>
+        <v>342380.7538722366</v>
       </c>
     </row>
     <row r="5">
@@ -16603,28 +16603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.9300907157197</v>
+        <v>251.0398782510999</v>
       </c>
       <c r="AB5" t="n">
-        <v>281.7626351115332</v>
+        <v>343.483836520781</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.8716046729133</v>
+        <v>310.7022212459324</v>
       </c>
       <c r="AD5" t="n">
-        <v>205930.0907157197</v>
+        <v>251039.8782510998</v>
       </c>
       <c r="AE5" t="n">
-        <v>281762.6351115332</v>
+        <v>343483.836520781</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.789163839230039e-06</v>
+        <v>3.919035747820969e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>254871.6046729134</v>
+        <v>310702.2212459324</v>
       </c>
     </row>
     <row r="6">
@@ -16709,28 +16709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>185.1134529399811</v>
+        <v>230.3084918213818</v>
       </c>
       <c r="AB6" t="n">
-        <v>253.2803929415383</v>
+        <v>315.1182390034352</v>
       </c>
       <c r="AC6" t="n">
-        <v>229.1076677205357</v>
+        <v>285.043796544267</v>
       </c>
       <c r="AD6" t="n">
-        <v>185113.4529399811</v>
+        <v>230308.4918213818</v>
       </c>
       <c r="AE6" t="n">
-        <v>253280.3929415382</v>
+        <v>315118.2390034352</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.975391456379608e-06</v>
+        <v>4.180702946633554e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.612268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>229107.6677205357</v>
+        <v>285043.796544267</v>
       </c>
     </row>
     <row r="7">
@@ -16815,28 +16815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.5732385585399</v>
+        <v>213.7293591722116</v>
       </c>
       <c r="AB7" t="n">
-        <v>242.9635389740744</v>
+        <v>292.4339382931405</v>
       </c>
       <c r="AC7" t="n">
-        <v>219.7754398159279</v>
+        <v>264.5244536561395</v>
       </c>
       <c r="AD7" t="n">
-        <v>177573.2385585399</v>
+        <v>213729.3591722116</v>
       </c>
       <c r="AE7" t="n">
-        <v>242963.5389740744</v>
+        <v>292433.9382931405</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.111553103207385e-06</v>
+        <v>4.372022780160272e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.189814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>219775.4398159279</v>
+        <v>264524.4536561395</v>
       </c>
     </row>
     <row r="8">
@@ -16921,28 +16921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>161.8836040277033</v>
+        <v>206.9933020545325</v>
       </c>
       <c r="AB8" t="n">
-        <v>221.4962888311706</v>
+        <v>283.21736777087</v>
       </c>
       <c r="AC8" t="n">
-        <v>200.3569938971811</v>
+        <v>256.1874996889736</v>
       </c>
       <c r="AD8" t="n">
-        <v>161883.6040277033</v>
+        <v>206993.3020545325</v>
       </c>
       <c r="AE8" t="n">
-        <v>221496.2888311706</v>
+        <v>283217.36777087</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.23595196530013e-06</v>
+        <v>4.546814802297022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.836805555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>200356.9938971811</v>
+        <v>256187.4996889736</v>
       </c>
     </row>
     <row r="9">
@@ -17027,28 +17027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.3038955200821</v>
+        <v>192.5452674797743</v>
       </c>
       <c r="AB9" t="n">
-        <v>213.8618854916806</v>
+        <v>263.4489294633959</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.4512072974573</v>
+        <v>238.3057333883811</v>
       </c>
       <c r="AD9" t="n">
-        <v>156303.8955200821</v>
+        <v>192545.2674797743</v>
       </c>
       <c r="AE9" t="n">
-        <v>213861.8854916806</v>
+        <v>263448.9294633958</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.347006491769101e-06</v>
+        <v>4.702856786302298e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.547453703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>193451.2072974573</v>
+        <v>238305.7333883811</v>
       </c>
     </row>
     <row r="10">
@@ -17133,28 +17133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>152.3452585444254</v>
+        <v>188.4160383035254</v>
       </c>
       <c r="AB10" t="n">
-        <v>208.4455037388522</v>
+        <v>257.7991359357206</v>
       </c>
       <c r="AC10" t="n">
-        <v>188.5517574171776</v>
+        <v>233.1951482254503</v>
       </c>
       <c r="AD10" t="n">
-        <v>152345.2585444254</v>
+        <v>188416.0383035254</v>
       </c>
       <c r="AE10" t="n">
-        <v>208445.5037388522</v>
+        <v>257799.1359357206</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.426182883136832e-06</v>
+        <v>4.81410701254905e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>188551.7574171775</v>
+        <v>233195.1482254503</v>
       </c>
     </row>
     <row r="11">
@@ -17239,28 +17239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>148.2375789315746</v>
+        <v>184.3083586906746</v>
       </c>
       <c r="AB11" t="n">
-        <v>202.8251952745178</v>
+        <v>252.1788274713861</v>
       </c>
       <c r="AC11" t="n">
-        <v>183.4678433045249</v>
+        <v>228.1112341127977</v>
       </c>
       <c r="AD11" t="n">
-        <v>148237.5789315746</v>
+        <v>184308.3586906746</v>
       </c>
       <c r="AE11" t="n">
-        <v>202825.1952745178</v>
+        <v>252178.8274713861</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.509708539448608e-06</v>
+        <v>4.931468362334949e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="AH11" t="n">
-        <v>183467.8433045249</v>
+        <v>228111.2341127977</v>
       </c>
     </row>
     <row r="12">
@@ -17345,28 +17345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.7092872674091</v>
+        <v>180.7336444396666</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.6834339103952</v>
+        <v>247.2877457278969</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.9620675863756</v>
+        <v>223.6869503462293</v>
       </c>
       <c r="AD12" t="n">
-        <v>135709.2872674091</v>
+        <v>180733.6444396666</v>
       </c>
       <c r="AE12" t="n">
-        <v>185683.4339103952</v>
+        <v>247287.7457278969</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.584288548545928e-06</v>
+        <v>5.036260242114193e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.980324074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>167962.0675863755</v>
+        <v>223686.9503462292</v>
       </c>
     </row>
     <row r="13">
@@ -17451,28 +17451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>135.5254798676602</v>
+        <v>180.5498370399177</v>
       </c>
       <c r="AB13" t="n">
-        <v>185.4319405170487</v>
+        <v>247.0362523345504</v>
       </c>
       <c r="AC13" t="n">
-        <v>167.7345763695168</v>
+        <v>223.4594591293705</v>
       </c>
       <c r="AD13" t="n">
-        <v>135525.4798676602</v>
+        <v>180549.8370399177</v>
       </c>
       <c r="AE13" t="n">
-        <v>185431.9405170487</v>
+        <v>247036.2523345504</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.588934354281612e-06</v>
+        <v>5.042788033167372e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH13" t="n">
-        <v>167734.5763695168</v>
+        <v>223459.4591293705</v>
       </c>
     </row>
     <row r="14">
@@ -17557,28 +17557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.5912895903139</v>
+        <v>180.6156467625713</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.5219842829034</v>
+        <v>247.1262961004052</v>
       </c>
       <c r="AC14" t="n">
-        <v>167.8160264847356</v>
+        <v>223.5409092445893</v>
       </c>
       <c r="AD14" t="n">
-        <v>135591.2895903139</v>
+        <v>180615.6467625714</v>
       </c>
       <c r="AE14" t="n">
-        <v>185521.9842829034</v>
+        <v>247126.2961004052</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.588786083885793e-06</v>
+        <v>5.042579699410357e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH14" t="n">
-        <v>167816.0264847356</v>
+        <v>223540.9092445893</v>
       </c>
     </row>
   </sheetData>
@@ -17854,28 +17854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.3882539567067</v>
+        <v>158.2358538985773</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.5617408028453</v>
+        <v>216.5052761771248</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.188129049085</v>
+        <v>195.8423164859056</v>
       </c>
       <c r="AD2" t="n">
-        <v>125388.2539567067</v>
+        <v>158235.8538985773</v>
       </c>
       <c r="AE2" t="n">
-        <v>171561.7408028453</v>
+        <v>216505.2761771248</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.833478549085325e-06</v>
+        <v>5.692114544951104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.449074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>155188.129049085</v>
+        <v>195842.3164859056</v>
       </c>
     </row>
     <row r="3">
@@ -17960,28 +17960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.1729803882333</v>
+        <v>155.0205803301039</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.1624616586035</v>
+        <v>212.105997032883</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2087109319411</v>
+        <v>191.8628983687618</v>
       </c>
       <c r="AD3" t="n">
-        <v>122172.9803882333</v>
+        <v>155020.5803301039</v>
       </c>
       <c r="AE3" t="n">
-        <v>167162.4616586035</v>
+        <v>212105.997032883</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.943136052701616e-06</v>
+        <v>5.854938743209956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.217592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>151208.7109319411</v>
+        <v>191862.8983687618</v>
       </c>
     </row>
   </sheetData>
@@ -18257,28 +18257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.6092187093199</v>
+        <v>353.0031802726418</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.6243538119773</v>
+        <v>482.9945246502277</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.675643553447</v>
+        <v>436.8982051046821</v>
       </c>
       <c r="AD2" t="n">
-        <v>290609.2187093199</v>
+        <v>353003.1802726418</v>
       </c>
       <c r="AE2" t="n">
-        <v>397624.3538119773</v>
+        <v>482994.5246502277</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147284916153353e-06</v>
+        <v>3.040021574272938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>359675.643553447</v>
+        <v>436898.2051046821</v>
       </c>
     </row>
     <row r="3">
@@ -18363,28 +18363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.7071534802754</v>
+        <v>283.0170997625333</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.2954613559585</v>
+        <v>387.2364817283348</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.2995436406895</v>
+        <v>350.2791754019973</v>
       </c>
       <c r="AD3" t="n">
-        <v>229707.1534802754</v>
+        <v>283017.0997625333</v>
       </c>
       <c r="AE3" t="n">
-        <v>314295.4613559585</v>
+        <v>387236.4817283348</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549265270996616e-06</v>
+        <v>3.609125814685781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.42939814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>284299.5436406895</v>
+        <v>350279.1754019973</v>
       </c>
     </row>
     <row r="4">
@@ -18469,28 +18469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.8149831481738</v>
+        <v>244.2968472045254</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.3956751581152</v>
+        <v>334.2577239613278</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.3031756343449</v>
+        <v>302.3566359202202</v>
       </c>
       <c r="AD4" t="n">
-        <v>199814.9831481738</v>
+        <v>244296.8472045254</v>
       </c>
       <c r="AE4" t="n">
-        <v>273395.6751581152</v>
+        <v>334257.7239613278</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.834099941967583e-06</v>
+        <v>4.012380891987705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>247303.1756343449</v>
+        <v>302356.6359202202</v>
       </c>
     </row>
     <row r="5">
@@ -18575,28 +18575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.8557755122416</v>
+        <v>222.4228909146138</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.3501184987796</v>
+        <v>304.3288119546414</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.125124733363</v>
+        <v>275.2840972699506</v>
       </c>
       <c r="AD5" t="n">
-        <v>177855.7755122416</v>
+        <v>222422.8909146138</v>
       </c>
       <c r="AE5" t="n">
-        <v>243350.1184987796</v>
+        <v>304328.8119546414</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.052885993582965e-06</v>
+        <v>4.322127545567445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.542824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>220125.124733363</v>
+        <v>275284.0972699506</v>
       </c>
     </row>
     <row r="6">
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.9744832540886</v>
+        <v>203.4562578018891</v>
       </c>
       <c r="AB6" t="n">
-        <v>217.5159014473622</v>
+        <v>278.3778277810264</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.7564890987733</v>
+        <v>251.8098386034221</v>
       </c>
       <c r="AD6" t="n">
-        <v>158974.4832540886</v>
+        <v>203456.2578018892</v>
       </c>
       <c r="AE6" t="n">
-        <v>217515.9014473622</v>
+        <v>278377.8277810264</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.244588083907717e-06</v>
+        <v>4.593530043687934e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.981481481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>196756.4890987733</v>
+        <v>251809.8386034221</v>
       </c>
     </row>
     <row r="7">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.9194283502008</v>
+        <v>197.4012028980014</v>
       </c>
       <c r="AB7" t="n">
-        <v>209.2311081976978</v>
+        <v>270.093034531362</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.262384889074</v>
+        <v>244.3157343937227</v>
       </c>
       <c r="AD7" t="n">
-        <v>152919.4283502008</v>
+        <v>197401.2028980014</v>
       </c>
       <c r="AE7" t="n">
-        <v>209231.1081976978</v>
+        <v>270093.034531362</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.374923354876935e-06</v>
+        <v>4.778052382877521e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.63425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>189262.384889074</v>
+        <v>244315.7343937227</v>
       </c>
     </row>
     <row r="8">
@@ -18893,28 +18893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.6418762589627</v>
+        <v>183.2103172348398</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.0101285973034</v>
+        <v>250.6764387093436</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.7305654470303</v>
+        <v>226.7522312255882</v>
       </c>
       <c r="AD8" t="n">
-        <v>147641.8762589627</v>
+        <v>183210.3172348398</v>
       </c>
       <c r="AE8" t="n">
-        <v>202010.1285973034</v>
+        <v>250676.4387093436</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.487890658104021e-06</v>
+        <v>4.937985997841381e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>182730.5654470303</v>
+        <v>226752.2312255882</v>
       </c>
     </row>
     <row r="9">
@@ -18999,28 +18999,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>142.9854146358599</v>
+        <v>178.553855611737</v>
       </c>
       <c r="AB9" t="n">
-        <v>195.638952375989</v>
+        <v>244.3052624880292</v>
       </c>
       <c r="AC9" t="n">
-        <v>176.9674453422741</v>
+        <v>220.989111120832</v>
       </c>
       <c r="AD9" t="n">
-        <v>142985.4146358599</v>
+        <v>178553.8556117371</v>
       </c>
       <c r="AE9" t="n">
-        <v>195638.952375989</v>
+        <v>244305.2624880292</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.586510509718041e-06</v>
+        <v>5.077607188444856e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH9" t="n">
-        <v>176967.4453422741</v>
+        <v>220989.111120832</v>
       </c>
     </row>
     <row r="10">
@@ -19105,28 +19105,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.0478114021681</v>
+        <v>176.6162523780453</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.9878381506315</v>
+        <v>241.6541482626717</v>
       </c>
       <c r="AC10" t="n">
-        <v>174.5693497377218</v>
+        <v>218.5910155162796</v>
       </c>
       <c r="AD10" t="n">
-        <v>141047.8114021681</v>
+        <v>176616.2523780453</v>
       </c>
       <c r="AE10" t="n">
-        <v>192987.8381506315</v>
+        <v>241654.1482626717</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.633328509718571e-06</v>
+        <v>5.143889836357686e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>174569.3497377218</v>
+        <v>218591.0155162796</v>
       </c>
     </row>
     <row r="11">
@@ -19211,28 +19211,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.9992723760603</v>
+        <v>176.5677133519375</v>
       </c>
       <c r="AB11" t="n">
-        <v>192.9214249137202</v>
+        <v>241.5877350257603</v>
       </c>
       <c r="AC11" t="n">
-        <v>174.5092748869297</v>
+        <v>218.5309406654875</v>
       </c>
       <c r="AD11" t="n">
-        <v>140999.2723760603</v>
+        <v>176567.7133519375</v>
       </c>
       <c r="AE11" t="n">
-        <v>192921.4249137202</v>
+        <v>241587.7350257603</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.633429193589541e-06</v>
+        <v>5.144032379686531e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>174509.2748869297</v>
+        <v>218530.9406654875</v>
       </c>
     </row>
   </sheetData>
@@ -19508,28 +19508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.4740748310779</v>
+        <v>180.9081888262153</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.7805352807951</v>
+        <v>247.5265650579277</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.5228841944133</v>
+        <v>223.9029770945869</v>
       </c>
       <c r="AD2" t="n">
-        <v>147474.0748310779</v>
+        <v>180908.1888262153</v>
       </c>
       <c r="AE2" t="n">
-        <v>201780.5352807951</v>
+        <v>247526.5650579277</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.492457341833946e-06</v>
+        <v>5.135457632024174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>182522.8841944133</v>
+        <v>223902.9770945869</v>
       </c>
     </row>
     <row r="3">
@@ -19614,28 +19614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.1972852707451</v>
+        <v>159.5460584113109</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.6686931386546</v>
+        <v>218.2979557935896</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.1894354075824</v>
+        <v>197.4639052758172</v>
       </c>
       <c r="AD3" t="n">
-        <v>126197.2852707451</v>
+        <v>159546.0584113109</v>
       </c>
       <c r="AE3" t="n">
-        <v>172668.6931386546</v>
+        <v>218297.9557935896</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865297647901774e-06</v>
+        <v>5.683697856002633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>156189.4354075824</v>
+        <v>197463.9052758172</v>
       </c>
     </row>
     <row r="4">
@@ -19720,28 +19720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.0153293059367</v>
+        <v>158.3641024465024</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.0514888433876</v>
+        <v>216.6807514983225</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.7265748204946</v>
+        <v>196.0010446887294</v>
       </c>
       <c r="AD4" t="n">
-        <v>125015.3293059367</v>
+        <v>158364.1024465025</v>
       </c>
       <c r="AE4" t="n">
-        <v>171051.4888433876</v>
+        <v>216680.7514983225</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.898972838829348e-06</v>
+        <v>5.733215287235757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.142361111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>154726.5748204946</v>
+        <v>196001.0446887294</v>
       </c>
     </row>
   </sheetData>
@@ -20017,28 +20017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.8152688257447</v>
+        <v>230.8105857219617</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.9771366321427</v>
+        <v>315.8052260290278</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.4515993817224</v>
+        <v>285.6652184923296</v>
       </c>
       <c r="AD2" t="n">
-        <v>187815.2688257447</v>
+        <v>230810.5857219617</v>
       </c>
       <c r="AE2" t="n">
-        <v>256977.1366321427</v>
+        <v>315805.2260290278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.910861395277319e-06</v>
+        <v>4.211354237401035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>232451.5993817224</v>
+        <v>285665.2184923296</v>
       </c>
     </row>
     <row r="3">
@@ -20123,28 +20123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.0131250367748</v>
+        <v>201.7525088778279</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.5687728391886</v>
+        <v>276.0466833390292</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.8043145191693</v>
+        <v>249.7011753151866</v>
       </c>
       <c r="AD3" t="n">
-        <v>159013.1250367748</v>
+        <v>201752.5088778279</v>
       </c>
       <c r="AE3" t="n">
-        <v>217568.7728391886</v>
+        <v>276046.6833390293</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.306362895370376e-06</v>
+        <v>4.783554934080611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.265046296296298</v>
       </c>
       <c r="AH3" t="n">
-        <v>196804.3145191693</v>
+        <v>249701.1753151866</v>
       </c>
     </row>
     <row r="4">
@@ -20229,28 +20229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.3010753440586</v>
+        <v>173.7143970319464</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.5978768153711</v>
+        <v>237.6837017573186</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.407482957966</v>
+        <v>214.9995028528395</v>
       </c>
       <c r="AD4" t="n">
-        <v>139301.0753440586</v>
+        <v>173714.3970319465</v>
       </c>
       <c r="AE4" t="n">
-        <v>190597.876815371</v>
+        <v>237683.7017573186</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.576347857286397e-06</v>
+        <v>5.174161754193827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.564814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>172407.482957966</v>
+        <v>214999.5028528395</v>
       </c>
     </row>
     <row r="5">
@@ -20335,28 +20335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.716746114979</v>
+        <v>165.9594756022746</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.2206629671586</v>
+        <v>227.0730761342594</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.0206558349126</v>
+        <v>205.4015404471351</v>
       </c>
       <c r="AD5" t="n">
-        <v>131716.746114979</v>
+        <v>165959.4756022746</v>
       </c>
       <c r="AE5" t="n">
-        <v>180220.6629671586</v>
+        <v>227073.0761342594</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.780424725558213e-06</v>
+        <v>5.469414556455875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.101851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>163020.6558349126</v>
+        <v>205401.540447135</v>
       </c>
     </row>
     <row r="6">
@@ -20441,28 +20441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.26479388428</v>
+        <v>164.5075233715757</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.2340378695057</v>
+        <v>225.0864510366065</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.2236314483332</v>
+        <v>203.6045160605557</v>
       </c>
       <c r="AD6" t="n">
-        <v>130264.79388428</v>
+        <v>164507.5233715757</v>
       </c>
       <c r="AE6" t="n">
-        <v>178234.0378695057</v>
+        <v>225086.4510366064</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.821398913896056e-06</v>
+        <v>5.528694885625998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.015046296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>161223.6314483332</v>
+        <v>203604.5160605556</v>
       </c>
     </row>
   </sheetData>
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.5282548400389</v>
+        <v>151.8262404268137</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.5438314865092</v>
+        <v>207.7353602528728</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.935437744691</v>
+        <v>187.9093890288072</v>
       </c>
       <c r="AD2" t="n">
-        <v>119528.2548400389</v>
+        <v>151826.2404268137</v>
       </c>
       <c r="AE2" t="n">
-        <v>163543.8314865092</v>
+        <v>207735.3602528728</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965219435675233e-06</v>
+        <v>5.954509017825296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.356481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>147935.437744691</v>
+        <v>187909.3890288072</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.4555805591219</v>
+        <v>155.6611996649519</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.3396629785385</v>
+        <v>212.982520668952</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.1325091785321</v>
+        <v>192.6557678192133</v>
       </c>
       <c r="AD2" t="n">
-        <v>116455.5805591219</v>
+        <v>155661.1996649519</v>
       </c>
       <c r="AE2" t="n">
-        <v>159339.6629785385</v>
+        <v>212982.520668952</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.930412752641455e-06</v>
+        <v>6.02825778112711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.784722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>144132.5091785321</v>
+        <v>192655.7678192133</v>
       </c>
     </row>
   </sheetData>
@@ -35577,28 +35577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.5434609509063</v>
+        <v>330.7614537574224</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.7472076263651</v>
+        <v>452.5624131963828</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.5046671090573</v>
+        <v>409.3704916562555</v>
       </c>
       <c r="AD2" t="n">
-        <v>277543.4609509063</v>
+        <v>330761.4537574224</v>
       </c>
       <c r="AE2" t="n">
-        <v>379747.2076263651</v>
+        <v>452562.4131963828</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.241697810953126e-06</v>
+        <v>3.182312484100037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>343504.6671090573</v>
+        <v>409370.4916562554</v>
       </c>
     </row>
     <row r="3">
@@ -35683,28 +35683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.5935773853809</v>
+        <v>264.941919642239</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.8258644803291</v>
+        <v>362.5052228670802</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.020027589677</v>
+        <v>327.9082331759211</v>
       </c>
       <c r="AD3" t="n">
-        <v>220593.5773853809</v>
+        <v>264941.919642239</v>
       </c>
       <c r="AE3" t="n">
-        <v>301825.8644803291</v>
+        <v>362505.2228670802</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.649491124453064e-06</v>
+        <v>3.761215557539541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.06481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>273020.027589677</v>
+        <v>327908.2331759211</v>
       </c>
     </row>
     <row r="4">
@@ -35789,28 +35789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.5104525822734</v>
+        <v>236.5576741710947</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.0870971327391</v>
+        <v>323.6686459887757</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.1236969854177</v>
+        <v>292.7781646875009</v>
       </c>
       <c r="AD4" t="n">
-        <v>183510.4525822735</v>
+        <v>236557.6741710947</v>
       </c>
       <c r="AE4" t="n">
-        <v>251087.0971327391</v>
+        <v>323668.6459887757</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.935473413393627e-06</v>
+        <v>4.16719579442977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.988425925925927</v>
       </c>
       <c r="AH4" t="n">
-        <v>227123.6969854177</v>
+        <v>292778.1646875009</v>
       </c>
     </row>
     <row r="5">
@@ -35895,28 +35895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.8868900666854</v>
+        <v>216.0645506143969</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.1832261035326</v>
+        <v>295.6290502457123</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.7376690860103</v>
+        <v>267.4146286083267</v>
       </c>
       <c r="AD5" t="n">
-        <v>171886.8900666854</v>
+        <v>216064.5506143969</v>
       </c>
       <c r="AE5" t="n">
-        <v>235183.2261035326</v>
+        <v>295629.0502457123</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.148338685512568e-06</v>
+        <v>4.469379170612592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.311342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>212737.6690860103</v>
+        <v>267414.6286083267</v>
       </c>
     </row>
     <row r="6">
@@ -36001,28 +36001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.6111259040988</v>
+        <v>198.8740377978309</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.5457634233687</v>
+        <v>272.1082322181976</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.3561326686465</v>
+        <v>246.1386044416751</v>
       </c>
       <c r="AD6" t="n">
-        <v>154611.1259040988</v>
+        <v>198874.0377978309</v>
       </c>
       <c r="AE6" t="n">
-        <v>211545.7634233687</v>
+        <v>272108.2322181976</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.321529235406055e-06</v>
+        <v>4.715240341713018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>191356.1326686465</v>
+        <v>246138.6044416751</v>
       </c>
     </row>
     <row r="7">
@@ -36107,28 +36107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.0523676206253</v>
+        <v>183.4457184732477</v>
       </c>
       <c r="AB7" t="n">
-        <v>202.5717809879308</v>
+        <v>250.9985250689028</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.2386145217805</v>
+        <v>227.0435781150422</v>
       </c>
       <c r="AD7" t="n">
-        <v>148052.3676206254</v>
+        <v>183445.7184732477</v>
       </c>
       <c r="AE7" t="n">
-        <v>202571.7809879308</v>
+        <v>250998.5250689028</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.464216359016372e-06</v>
+        <v>4.917798872379723e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.466435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>183238.6145217805</v>
+        <v>227043.5781150422</v>
       </c>
     </row>
     <row r="8">
@@ -36213,28 +36213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>142.8839997884226</v>
+        <v>178.2773506410449</v>
       </c>
       <c r="AB8" t="n">
-        <v>195.500192107618</v>
+        <v>243.92693618859</v>
       </c>
       <c r="AC8" t="n">
-        <v>176.8419281591652</v>
+        <v>220.6468917524269</v>
       </c>
       <c r="AD8" t="n">
-        <v>142883.9997884226</v>
+        <v>178277.3506410449</v>
       </c>
       <c r="AE8" t="n">
-        <v>195500.192107618</v>
+        <v>243926.93618859</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.575589334050277e-06</v>
+        <v>5.075903861870284e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.200231481481483</v>
       </c>
       <c r="AH8" t="n">
-        <v>176841.9281591652</v>
+        <v>220646.8917524269</v>
       </c>
     </row>
     <row r="9">
@@ -36319,28 +36319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.8411015070191</v>
+        <v>175.2344523596414</v>
       </c>
       <c r="AB9" t="n">
-        <v>191.3367644358061</v>
+        <v>239.7635085167781</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.0758521809423</v>
+        <v>216.8808157742039</v>
       </c>
       <c r="AD9" t="n">
-        <v>139841.1015070191</v>
+        <v>175234.4523596414</v>
       </c>
       <c r="AE9" t="n">
-        <v>191336.7644358061</v>
+        <v>239763.5085167781</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.646578204852141e-06</v>
+        <v>5.176679608128825e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH9" t="n">
-        <v>173075.8521809423</v>
+        <v>216880.8157742039</v>
       </c>
     </row>
     <row r="10">
@@ -36425,28 +36425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>139.5332572181999</v>
+        <v>174.9266080708222</v>
       </c>
       <c r="AB10" t="n">
-        <v>190.9155582987123</v>
+        <v>239.3423023796843</v>
       </c>
       <c r="AC10" t="n">
-        <v>172.694845366406</v>
+        <v>216.4998089596677</v>
       </c>
       <c r="AD10" t="n">
-        <v>139533.2572181998</v>
+        <v>174926.6080708222</v>
       </c>
       <c r="AE10" t="n">
-        <v>190915.5582987123</v>
+        <v>239342.3023796843</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.659499091400661e-06</v>
+        <v>5.195022088711215e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.015046296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>172694.845366406</v>
+        <v>216499.8089596677</v>
       </c>
     </row>
     <row r="11">
@@ -36531,28 +36531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.5975212486626</v>
+        <v>174.9908721012849</v>
       </c>
       <c r="AB11" t="n">
-        <v>191.0034871803203</v>
+        <v>239.4302312612922</v>
       </c>
       <c r="AC11" t="n">
-        <v>172.7743824389623</v>
+        <v>216.579346032224</v>
       </c>
       <c r="AD11" t="n">
-        <v>139597.5212486626</v>
+        <v>174990.8721012849</v>
       </c>
       <c r="AE11" t="n">
-        <v>191003.4871803203</v>
+        <v>239430.2312612922</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.659245740684024e-06</v>
+        <v>5.194662432229208e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.015046296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>172774.3824389623</v>
+        <v>216579.346032224</v>
       </c>
     </row>
   </sheetData>
@@ -36828,28 +36828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.1428179786758</v>
+        <v>161.3135262285402</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.489436236061</v>
+        <v>220.7162832362984</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.4090409181471</v>
+        <v>199.6514309415385</v>
       </c>
       <c r="AD2" t="n">
-        <v>123142.8179786758</v>
+        <v>161313.5262285402</v>
       </c>
       <c r="AE2" t="n">
-        <v>168489.436236061</v>
+        <v>220716.2832362984</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814536101334763e-06</v>
+        <v>5.960137415216562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.363425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>152409.0409181471</v>
+        <v>199651.4309415385</v>
       </c>
     </row>
   </sheetData>
@@ -37125,28 +37125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.7993126265352</v>
+        <v>185.5498495815228</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.0160752797042</v>
+        <v>253.8774900789563</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.4994533583359</v>
+        <v>229.6477787451899</v>
       </c>
       <c r="AD2" t="n">
-        <v>141799.3126265352</v>
+        <v>185549.8495815228</v>
       </c>
       <c r="AE2" t="n">
-        <v>194016.0752797041</v>
+        <v>253877.4900789563</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.22838007280624e-06</v>
+        <v>5.261213953213844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>175499.4533583359</v>
+        <v>229647.7787451899</v>
       </c>
     </row>
   </sheetData>
@@ -37422,28 +37422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.395479020849</v>
+        <v>173.7961163623828</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.1493352725519</v>
+        <v>237.795513750424</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.8606969588792</v>
+        <v>215.100643666252</v>
       </c>
       <c r="AD2" t="n">
-        <v>132395.479020849</v>
+        <v>173796.1163623828</v>
       </c>
       <c r="AE2" t="n">
-        <v>181149.3352725519</v>
+        <v>237795.513750424</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.649962445462665e-06</v>
+        <v>5.392384455052423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.784722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>163860.6969588792</v>
+        <v>215100.643666252</v>
       </c>
     </row>
     <row r="3">
@@ -37528,28 +37528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.3279928999359</v>
+        <v>156.4315241107997</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7428007326699</v>
+        <v>214.0365125600764</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.638224662799</v>
+        <v>193.6091682035361</v>
       </c>
       <c r="AD3" t="n">
-        <v>123327.992899936</v>
+        <v>156431.5241107997</v>
       </c>
       <c r="AE3" t="n">
-        <v>168742.8007326699</v>
+        <v>214036.5125600764</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.932633458016479e-06</v>
+        <v>5.809997183063904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.153935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>152638.224662799</v>
+        <v>193609.1682035361</v>
       </c>
     </row>
     <row r="4">
@@ -37634,28 +37634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.4355357889848</v>
+        <v>156.5390669998485</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.8899456579239</v>
+        <v>214.1836574853304</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.7713262829059</v>
+        <v>193.742269823643</v>
       </c>
       <c r="AD4" t="n">
-        <v>123435.5357889848</v>
+        <v>156539.0669998485</v>
       </c>
       <c r="AE4" t="n">
-        <v>168889.9456579239</v>
+        <v>214183.6574853304</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.929808409684078e-06</v>
+        <v>5.805823510885071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>152771.3262829059</v>
+        <v>193742.269823643</v>
       </c>
     </row>
   </sheetData>
@@ -37931,28 +37931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.6354932976074</v>
+        <v>222.1951561551194</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.7852068883231</v>
+        <v>304.0172152097528</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.3278117046773</v>
+        <v>275.0022388810653</v>
       </c>
       <c r="AD2" t="n">
-        <v>179635.4932976073</v>
+        <v>222195.1561551194</v>
       </c>
       <c r="AE2" t="n">
-        <v>245785.2068883231</v>
+        <v>304017.2152097528</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037880507277756e-06</v>
+        <v>4.411515945851502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16782407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>222327.8117046773</v>
+        <v>275002.2388810653</v>
       </c>
     </row>
     <row r="3">
@@ -38037,28 +38037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.224513505593</v>
+        <v>187.3405343769701</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.6485391667123</v>
+        <v>256.3275840155239</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.6399768322739</v>
+        <v>231.8640391551806</v>
       </c>
       <c r="AD3" t="n">
-        <v>153224.513505593</v>
+        <v>187340.5343769701</v>
       </c>
       <c r="AE3" t="n">
-        <v>209648.5391667123</v>
+        <v>256327.5840155239</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.42364734777003e-06</v>
+        <v>4.971714598871406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.02199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>189639.9768322739</v>
+        <v>231864.0391551806</v>
       </c>
     </row>
     <row r="4">
@@ -38143,28 +38143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.5739609870305</v>
+        <v>167.604641003836</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.7617862896357</v>
+        <v>229.3240640162497</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.3192579139822</v>
+        <v>207.4376972049502</v>
       </c>
       <c r="AD4" t="n">
-        <v>133573.9609870305</v>
+        <v>167604.641003836</v>
       </c>
       <c r="AE4" t="n">
-        <v>182761.7862896357</v>
+        <v>229324.0640162496</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.710717234053059e-06</v>
+        <v>5.388588593051709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.32175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>165319.2579139822</v>
+        <v>207437.6972049502</v>
       </c>
     </row>
     <row r="5">
@@ -38249,28 +38249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.1869752195529</v>
+        <v>163.2176552363584</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.7593188224232</v>
+        <v>223.3215965490371</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.8896575173225</v>
+        <v>202.0080968082905</v>
       </c>
       <c r="AD5" t="n">
-        <v>129186.9752195529</v>
+        <v>163217.6552363584</v>
       </c>
       <c r="AE5" t="n">
-        <v>176759.3188224232</v>
+        <v>223321.5965490371</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.832740618218736e-06</v>
+        <v>5.565787170719276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>159889.6575173225</v>
+        <v>202008.0968082905</v>
       </c>
     </row>
     <row r="6">
@@ -38355,28 +38355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.6868549452873</v>
+        <v>162.7175349620928</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.075032199424</v>
+        <v>222.637309926038</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.2706782492199</v>
+        <v>201.3891175401878</v>
       </c>
       <c r="AD6" t="n">
-        <v>128686.8549452873</v>
+        <v>162717.5349620928</v>
       </c>
       <c r="AE6" t="n">
-        <v>176075.032199424</v>
+        <v>222637.309926038</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.851102842257665e-06</v>
+        <v>5.592452223526643e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>159270.6782492199</v>
+        <v>201389.1175401878</v>
       </c>
     </row>
   </sheetData>
@@ -38652,28 +38652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.0382302708934</v>
+        <v>277.4283954827519</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.9072346425306</v>
+        <v>379.5897699765061</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.5210003188566</v>
+        <v>343.3622550875358</v>
       </c>
       <c r="AD2" t="n">
-        <v>225038.2302708934</v>
+        <v>277428.3954827519</v>
       </c>
       <c r="AE2" t="n">
-        <v>307907.2346425306</v>
+        <v>379589.7699765061</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.55411636284891e-06</v>
+        <v>3.658021677682385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>278521.0003188566</v>
+        <v>343362.2550875358</v>
       </c>
     </row>
     <row r="3">
@@ -38758,28 +38758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.5724980108746</v>
+        <v>232.1457176747332</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.0132110098307</v>
+        <v>317.6320124686736</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.3887922749437</v>
+        <v>287.3176589980869</v>
       </c>
       <c r="AD3" t="n">
-        <v>188572.4980108746</v>
+        <v>232145.7176747332</v>
       </c>
       <c r="AE3" t="n">
-        <v>258013.2110098308</v>
+        <v>317632.0124686736</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.950754270810316e-06</v>
+        <v>4.226089008763198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14467592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>233388.7922749437</v>
+        <v>287317.6589980869</v>
       </c>
     </row>
     <row r="4">
@@ -38864,28 +38864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.2913600319711</v>
+        <v>208.7792388412581</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.1589309357918</v>
+        <v>285.6609652724371</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.5746399833981</v>
+        <v>258.3978836746025</v>
       </c>
       <c r="AD4" t="n">
-        <v>165291.3600319711</v>
+        <v>208779.2388412581</v>
       </c>
       <c r="AE4" t="n">
-        <v>226158.9309357918</v>
+        <v>285660.9652724371</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.229337176036894e-06</v>
+        <v>4.625077215085121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>204574.6399833981</v>
+        <v>258397.8836746025</v>
       </c>
     </row>
     <row r="5">
@@ -38970,28 +38970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.7189574054995</v>
+        <v>190.292087560807</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.7473503056895</v>
+        <v>260.3660292949839</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.5883049432472</v>
+        <v>235.5170608851638</v>
       </c>
       <c r="AD5" t="n">
-        <v>146718.9574054994</v>
+        <v>190292.087560807</v>
       </c>
       <c r="AE5" t="n">
-        <v>200747.3503056894</v>
+        <v>260366.0292949839</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.448892579896058e-06</v>
+        <v>4.939525859027598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>181588.3049432472</v>
+        <v>235517.0608851638</v>
       </c>
     </row>
     <row r="6">
@@ -39076,28 +39076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.4361132363395</v>
+        <v>174.2776386982223</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.782641617041</v>
+        <v>238.4543538535855</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.5746140662837</v>
+        <v>215.6966049946559</v>
       </c>
       <c r="AD6" t="n">
-        <v>139436.1132363395</v>
+        <v>174277.6386982223</v>
       </c>
       <c r="AE6" t="n">
-        <v>190782.641617041</v>
+        <v>238454.3538535855</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.62375055940689e-06</v>
+        <v>5.189958567916753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>172574.6140662837</v>
+        <v>215696.6049946559</v>
       </c>
     </row>
     <row r="7">
@@ -39182,28 +39182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.2474489411604</v>
+        <v>170.0889744030431</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.051526337553</v>
+        <v>232.7232385740974</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.3904683853973</v>
+        <v>210.5124593137695</v>
       </c>
       <c r="AD7" t="n">
-        <v>135247.4489411604</v>
+        <v>170088.9744030431</v>
       </c>
       <c r="AE7" t="n">
-        <v>185051.526337553</v>
+        <v>232723.2385740974</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.727992816422964e-06</v>
+        <v>5.339254990523749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>167390.4683853973</v>
+        <v>210512.4593137695</v>
       </c>
     </row>
     <row r="8">
@@ -39288,28 +39288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.7129157518681</v>
+        <v>169.5544412137508</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.3201544460236</v>
+        <v>231.991866682568</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.7288976007084</v>
+        <v>209.8508885290806</v>
       </c>
       <c r="AD8" t="n">
-        <v>134712.915751868</v>
+        <v>169554.4412137508</v>
       </c>
       <c r="AE8" t="n">
-        <v>184320.1544460236</v>
+        <v>231991.866682568</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.740357034500801e-06</v>
+        <v>5.356963102187805e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.003472222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>166728.8976007084</v>
+        <v>209850.8885290806</v>
       </c>
     </row>
   </sheetData>
